--- a/financial_files/excel/CNK.xlsx
+++ b/financial_files/excel/CNK.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data" ref="A1:O116" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data_scraped" ref="A1:O116" headerRowCount="1">
   <autoFilter ref="A1:O116"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Category"/>

--- a/financial_files/excel/CNK.xlsx
+++ b/financial_files/excel/CNK.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_statement_api" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -156,6 +158,45 @@
     <tableColumn id="13" name="2018"/>
     <tableColumn id="14" name="2019"/>
     <tableColumn id="15" name="TTM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:S23" headerRowCount="1">
+  <autoFilter ref="A1:S23"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="API Parameter"/>
+    <tableColumn id="2" name="2002"/>
+    <tableColumn id="3" name="2003"/>
+    <tableColumn id="4" name="2004"/>
+    <tableColumn id="5" name="2005"/>
+    <tableColumn id="6" name="2006"/>
+    <tableColumn id="7" name="2007"/>
+    <tableColumn id="8" name="2008"/>
+    <tableColumn id="9" name="2009"/>
+    <tableColumn id="10" name="2010"/>
+    <tableColumn id="11" name="2011"/>
+    <tableColumn id="12" name="2012"/>
+    <tableColumn id="13" name="2013"/>
+    <tableColumn id="14" name="2014"/>
+    <tableColumn id="15" name="2015"/>
+    <tableColumn id="16" name="2016"/>
+    <tableColumn id="17" name="2017"/>
+    <tableColumn id="18" name="2018"/>
+    <tableColumn id="19" name="2019"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B55" headerRowCount="1">
+  <autoFilter ref="A1:B55"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule #1 Metric"/>
+    <tableColumn id="2" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6883,4 +6924,2113 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>API Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>935854000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>950872000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>790617000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1020597000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1220594000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1682841000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1742287000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1976500000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2141144000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2279613000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2473531000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2682894000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2626990000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2852609000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2918765000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2991547000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3221735000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3283099000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>operating_income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>935854000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>906586000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>790617000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>63501000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>127369000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>112960000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>173752000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>262332000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>304976000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>324359000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>398901000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>415440000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>385432000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>440096000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>446230000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>430178000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>459425000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>407396000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pretax_income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>47389000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-16000000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13526000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>200882000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-23375000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>145601000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>207501000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>205632000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>296818000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>263864000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>290063000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>347667000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>360646000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>345377000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>310734000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>273760000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>income_tax</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-9408000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-12685000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-111962000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-21055000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-44845000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-57838000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-73050000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-125398000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-113316000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-96064000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-128939000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-103819000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-79358000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-95429000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-79912000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eps_diluted</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shares_diluted</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>118253000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>120673000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27675000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>81961000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>84100000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>104612000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>107341000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>110255000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>112151000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>113224000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>113824000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>114396000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>114966000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>115399000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>115783000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>116059000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>116342000</v>
+      </c>
+      <c r="S7" t="n">
+        <v>116606000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>916814000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>960736000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1864852000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3171582000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3296892000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3065708000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3276448000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3421478000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3522408000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3863226000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4144163000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4120561000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4126497000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4306633000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4470893000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4481838000</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5828017000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>st_debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6871000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17908000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13850000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12450000</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25456000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12784000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12145000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9546000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>9856000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8423000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8405000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5671000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7099000</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7984000</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6595000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lt_debt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1048224000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1897394000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1514579000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1496012000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1531478000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1521605000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1560076000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1754464000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1822944000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1783155000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1772930000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1782441000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1780381000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1772627000</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1771342000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>27664000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>76946000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>535771000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>705910000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1035385000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>824227000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>914628000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1033152000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1023639000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1094984000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1102417000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1123129000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1110813000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1272960000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1405688000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1408570000</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1448322000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cf_cfo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>150119000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>135522000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>165270000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>155662000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>276036000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>257294000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>176763000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>264751000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>391201000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>395205000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>309666000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>454634000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>455871000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>462910000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>528998000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>556915000</v>
+      </c>
+      <c r="S12" t="n">
+        <v>561995000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cfi_ppe_net</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-38032000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-51002000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-74288000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-100635000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-108772000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-108670000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-180630000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-134311000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-178589000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-218751000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-225399000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-242160000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-321760000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-323338000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-365764000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-342153000</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-300472000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>roic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.3442</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.2427</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.0356</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0358</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.0216</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0452</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0659</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0584</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.07530000000000001</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0616</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0765</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.08649999999999999</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0968</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.07190000000000001</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0537</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>revenue_growth</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.1685</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2908</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1959</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3787</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0353</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1344</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0833</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0646</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.08459999999999999</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.0208</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.0858</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.0231</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.0249</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eps_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2333</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1.3513</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1.3846</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.0322</v>
+      </c>
+      <c r="G16" t="n">
+        <v>84</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-1.5294</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.9333</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.4827</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.1162</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.2894</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.1292</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.2968</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.1265</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.1711</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0319</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.1902</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-0.1092</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>total_equity_growth</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.7814</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3175</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4667</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.2039</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1096</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1295</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.0092</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0696</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0067</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0187</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.0109</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.1459</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.1042</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.0282</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cfo_growth</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.09719999999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.0581</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.7733</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.0678</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.3129</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.4977</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.4776</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.2164</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.4681</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.0154</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.1427</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.0527</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.0091</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fcf_growth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.2459</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.3951</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.0396</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.1114</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-1.026</v>
+      </c>
+      <c r="J19" t="n">
+        <v>34.7315</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.6299</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.5224</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.5214</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.3688</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.0407</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.1695</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3156</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.2177</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fcf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>112087000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>84520000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>90982000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>55027000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>167264000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>148624000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-3867000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>130440000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>212612000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>176454000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>84267000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>212474000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>134111000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>139572000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>163234000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>214762000</v>
+      </c>
+      <c r="S20" t="n">
+        <v>261523000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>book_value_per_share</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2339</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6375999999999999</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.5369</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8.393599999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9.8973</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7.6785</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8.295500000000001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9.2121</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9.040800000000001</v>
+      </c>
+      <c r="L21" t="n">
+        <v>9.619899999999999</v>
+      </c>
+      <c r="M21" t="n">
+        <v>9.636799999999999</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9.7692</v>
+      </c>
+      <c r="O21" t="n">
+        <v>9.6258</v>
+      </c>
+      <c r="P21" t="n">
+        <v>10.9943</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>12.1118</v>
+      </c>
+      <c r="R21" t="n">
+        <v>12.1071</v>
+      </c>
+      <c r="S21" t="n">
+        <v>12.4206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1818728000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>808837230</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1593877290</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1961067240</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2111594980</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2986401000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3845715390</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4116606000</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3875339320</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4457815600</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4055659500</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4182549800</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3965595200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>price_to_earnings</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>20.4535</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-16.7374</v>
+      </c>
+      <c r="I23" t="n">
+        <v>16.4134</v>
+      </c>
+      <c r="J23" t="n">
+        <v>13.4209</v>
+      </c>
+      <c r="K23" t="n">
+        <v>16.1737</v>
+      </c>
+      <c r="L23" t="n">
+        <v>17.6763</v>
+      </c>
+      <c r="M23" t="n">
+        <v>25.9023</v>
+      </c>
+      <c r="N23" t="n">
+        <v>21.3727</v>
+      </c>
+      <c r="O23" t="n">
+        <v>17.8694</v>
+      </c>
+      <c r="P23" t="n">
+        <v>17.4753</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>15.3518</v>
+      </c>
+      <c r="R23" t="n">
+        <v>19.5604</v>
+      </c>
+      <c r="S23" t="n">
+        <v>20.7204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rule #1 Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROIC - 10-year</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9.09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROIC - 5-year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>9.85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ROIC - 3-year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9.77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ROIC - 1-year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>8.94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 10-year</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>7.40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 5-year</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>8.04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 3-year</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7.29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 1-year</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5.37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4.12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4.92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2.59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6.48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-0.36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-9.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-10.93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5.21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4.56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1.90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>152.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4.24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>23.28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>21.77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>12.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4.33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>6.68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0.91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Debt - Current Long-Term Debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1771342000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Debt - Payoff Possible</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>current_eps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>analyst_growth_rate</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>equity_growth_rate</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.03944446970573834</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eps_growth_rate</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.03944446970573834</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>future_eps</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2.399940827265431</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>average_historical_pe</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>18.55232</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>default_pe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>7.888893941147668</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>future_pe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>7.888893941147668</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>future_market_price</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>18.93287865132718</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sticker_price</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>4.679918045469257</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>margin_of_safety</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2.339959022734628</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cinemark Holdings Inc Cinemark </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CNK</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NYQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>http://ir.cinemark.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>marketCap</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1909433216</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>6248716</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>forwardPE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-8.830601</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>previousClose</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>17.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>